--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cthrc1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H2">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.415956</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N2">
-        <v>37.247868</v>
+        <v>59.532062</v>
       </c>
       <c r="O2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P2">
-        <v>0.8598042313376485</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q2">
-        <v>6.489340117567999</v>
+        <v>17.10196727627311</v>
       </c>
       <c r="R2">
-        <v>58.404061058112</v>
+        <v>153.917705486458</v>
       </c>
       <c r="S2">
-        <v>0.003541337911669769</v>
+        <v>0.006067014748649635</v>
       </c>
       <c r="T2">
-        <v>0.003541337911669769</v>
+        <v>0.006067014748649633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H3">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>5.237639</v>
       </c>
       <c r="O3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P3">
-        <v>0.1209020654395331</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q3">
-        <v>0.9125037944195554</v>
+        <v>1.504633432366778</v>
       </c>
       <c r="R3">
-        <v>8.212534149775999</v>
+        <v>13.541700891301</v>
       </c>
       <c r="S3">
-        <v>0.0004979680866121019</v>
+        <v>0.0005337767917580703</v>
       </c>
       <c r="T3">
-        <v>0.0004979680866121019</v>
+        <v>0.00053377679175807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,108 +661,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H4">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2786096666666666</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N4">
-        <v>0.8358289999999999</v>
+        <v>1.666838</v>
       </c>
       <c r="O4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P4">
-        <v>0.01929370322281843</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q4">
-        <v>0.1456184998595556</v>
+        <v>0.4788379231824445</v>
       </c>
       <c r="R4">
-        <v>1.310566498736</v>
+        <v>4.309541308642</v>
       </c>
       <c r="S4">
-        <v>7.946637174973428E-05</v>
+        <v>0.0001698703251637691</v>
       </c>
       <c r="T4">
-        <v>7.94663717497343E-05</v>
+        <v>0.000169870325163769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>125.8872733333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H5">
-        <v>377.66182</v>
+        <v>2.585459</v>
       </c>
       <c r="I5">
-        <v>0.9920401416289004</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J5">
-        <v>0.9920401416289004</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.415956</v>
+        <v>0.009795</v>
       </c>
       <c r="N5">
-        <v>37.247868</v>
+        <v>0.029385</v>
       </c>
       <c r="O5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P5">
-        <v>0.8598042313376485</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q5">
-        <v>1563.01084666664</v>
+        <v>0.008441523635000002</v>
       </c>
       <c r="R5">
-        <v>14067.09761999976</v>
+        <v>0.075973712715</v>
       </c>
       <c r="S5">
-        <v>0.8529603114293287</v>
+        <v>2.994675850285003E-06</v>
       </c>
       <c r="T5">
-        <v>0.8529603114293287</v>
+        <v>2.994675850285003E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>377.66182</v>
       </c>
       <c r="I6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.745879666666666</v>
+        <v>19.84402066666667</v>
       </c>
       <c r="N6">
-        <v>5.237639</v>
+        <v>59.532062</v>
       </c>
       <c r="O6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773022</v>
       </c>
       <c r="P6">
-        <v>0.1209020654395331</v>
+        <v>0.8956779416773021</v>
       </c>
       <c r="Q6">
-        <v>219.7840308047755</v>
+        <v>2498.109653696982</v>
       </c>
       <c r="R6">
-        <v>1978.05627724298</v>
+        <v>22482.98688327284</v>
       </c>
       <c r="S6">
-        <v>0.119939702121861</v>
+        <v>0.8862178173940733</v>
       </c>
       <c r="T6">
-        <v>0.119939702121861</v>
+        <v>0.8862178173940732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,72 +853,72 @@
         <v>377.66182</v>
       </c>
       <c r="I7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2786096666666666</v>
+        <v>1.745879666666666</v>
       </c>
       <c r="N7">
-        <v>0.8358289999999999</v>
+        <v>5.237639</v>
       </c>
       <c r="O7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="P7">
-        <v>0.01929370322281843</v>
+        <v>0.07880186845818919</v>
       </c>
       <c r="Q7">
-        <v>35.07341126097555</v>
+        <v>219.7840308047755</v>
       </c>
       <c r="R7">
-        <v>315.66070134878</v>
+        <v>1978.05627724298</v>
       </c>
       <c r="S7">
-        <v>0.01914012807771076</v>
+        <v>0.07796956542305013</v>
       </c>
       <c r="T7">
-        <v>0.01914012807771077</v>
+        <v>0.07796956542305013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4874236666666667</v>
+        <v>125.8872733333333</v>
       </c>
       <c r="H8">
-        <v>1.462271</v>
+        <v>377.66182</v>
       </c>
       <c r="I8">
-        <v>0.003841086001067924</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J8">
-        <v>0.003841086001067923</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.415956</v>
+        <v>0.5556126666666666</v>
       </c>
       <c r="N8">
-        <v>37.247868</v>
+        <v>1.666838</v>
       </c>
       <c r="O8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071368</v>
       </c>
       <c r="P8">
-        <v>0.8598042313376485</v>
+        <v>0.02507808362071367</v>
       </c>
       <c r="Q8">
-        <v>6.051830798692</v>
+        <v>69.94456363612889</v>
       </c>
       <c r="R8">
-        <v>54.466477188228</v>
+        <v>629.50107272516</v>
       </c>
       <c r="S8">
-        <v>0.003302581996650008</v>
+        <v>0.02481320963331494</v>
       </c>
       <c r="T8">
-        <v>0.003302581996650008</v>
+        <v>0.02481320963331494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4874236666666667</v>
+        <v>125.8872733333333</v>
       </c>
       <c r="H9">
-        <v>1.462271</v>
+        <v>377.66182</v>
       </c>
       <c r="I9">
-        <v>0.003841086001067924</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J9">
-        <v>0.003841086001067923</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.745879666666666</v>
+        <v>0.009795</v>
       </c>
       <c r="N9">
-        <v>5.237639</v>
+        <v>0.029385</v>
       </c>
       <c r="O9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="P9">
-        <v>0.1209020654395331</v>
+        <v>0.0004421062437949407</v>
       </c>
       <c r="Q9">
-        <v>0.8509830686854444</v>
+        <v>1.2330658423</v>
       </c>
       <c r="R9">
-        <v>7.658847618169</v>
+        <v>11.0975925807</v>
       </c>
       <c r="S9">
-        <v>0.0004643952310599885</v>
+        <v>0.0004374367305490753</v>
       </c>
       <c r="T9">
-        <v>0.0004643952310599885</v>
+        <v>0.0004374367305490753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.279391</v>
+      </c>
+      <c r="I10">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J10">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>19.84402066666667</v>
+      </c>
+      <c r="N10">
+        <v>59.532062</v>
+      </c>
+      <c r="O10">
+        <v>0.8956779416773022</v>
+      </c>
+      <c r="P10">
+        <v>0.8956779416773021</v>
+      </c>
+      <c r="Q10">
+        <v>8.462753814915777</v>
+      </c>
+      <c r="R10">
+        <v>76.16478433424199</v>
+      </c>
+      <c r="S10">
+        <v>0.003002207370640804</v>
+      </c>
+      <c r="T10">
+        <v>0.003002207370640804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.279391</v>
+      </c>
+      <c r="I11">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J11">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N11">
+        <v>5.237639</v>
+      </c>
+      <c r="O11">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="P11">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="Q11">
+        <v>0.7445542442054444</v>
+      </c>
+      <c r="R11">
+        <v>6.700988197848999</v>
+      </c>
+      <c r="S11">
+        <v>0.0002641346172513852</v>
+      </c>
+      <c r="T11">
+        <v>0.0002641346172513852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.279391</v>
+      </c>
+      <c r="I12">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J12">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5556126666666666</v>
+      </c>
+      <c r="N12">
+        <v>1.666838</v>
+      </c>
+      <c r="O12">
+        <v>0.02507808362071368</v>
+      </c>
+      <c r="P12">
+        <v>0.02507808362071367</v>
+      </c>
+      <c r="Q12">
+        <v>0.2369486150731111</v>
+      </c>
+      <c r="R12">
+        <v>2.132537535658</v>
+      </c>
+      <c r="S12">
+        <v>8.405879388595975E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.405879388595974E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4264636666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.279391</v>
+      </c>
+      <c r="I13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="J13">
+        <v>0.00335188267003504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009795</v>
+      </c>
+      <c r="N13">
+        <v>0.029385</v>
+      </c>
+      <c r="O13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="P13">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="Q13">
+        <v>0.004177211615</v>
+      </c>
+      <c r="R13">
+        <v>0.037594904535</v>
+      </c>
+      <c r="S13">
+        <v>1.481888256890548E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.481888256890548E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.166583</v>
+      </c>
+      <c r="I14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J14">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.84402066666667</v>
+      </c>
+      <c r="N14">
+        <v>59.532062</v>
+      </c>
+      <c r="O14">
+        <v>0.8956779416773022</v>
+      </c>
+      <c r="P14">
+        <v>0.8956779416773021</v>
+      </c>
+      <c r="Q14">
+        <v>1.101892164905111</v>
+      </c>
+      <c r="R14">
+        <v>9.917029484145999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003909021639385123</v>
+      </c>
+      <c r="T14">
+        <v>0.0003909021639385122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.166583</v>
+      </c>
+      <c r="I15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J15">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.745879666666666</v>
+      </c>
+      <c r="N15">
+        <v>5.237639</v>
+      </c>
+      <c r="O15">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="P15">
+        <v>0.07880186845818919</v>
+      </c>
+      <c r="Q15">
+        <v>0.09694462417077777</v>
+      </c>
+      <c r="R15">
+        <v>0.872501617537</v>
+      </c>
+      <c r="S15">
+        <v>3.439162612960972E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.439162612960971E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4874236666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.462271</v>
-      </c>
-      <c r="I10">
-        <v>0.003841086001067924</v>
-      </c>
-      <c r="J10">
-        <v>0.003841086001067923</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2786096666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.8358289999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="P10">
-        <v>0.01929370322281843</v>
-      </c>
-      <c r="Q10">
-        <v>0.1358009452954445</v>
-      </c>
-      <c r="R10">
-        <v>1.222208507659</v>
-      </c>
-      <c r="S10">
-        <v>7.410877335792694E-05</v>
-      </c>
-      <c r="T10">
-        <v>7.410877335792694E-05</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.166583</v>
+      </c>
+      <c r="I16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J16">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5556126666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.666838</v>
+      </c>
+      <c r="O16">
+        <v>0.02507808362071368</v>
+      </c>
+      <c r="P16">
+        <v>0.02507808362071367</v>
+      </c>
+      <c r="Q16">
+        <v>0.03085187495044444</v>
+      </c>
+      <c r="R16">
+        <v>0.277666874554</v>
+      </c>
+      <c r="S16">
+        <v>1.094486834900733E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.094486834900733E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.166583</v>
+      </c>
+      <c r="I17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J17">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009795</v>
+      </c>
+      <c r="N17">
+        <v>0.029385</v>
+      </c>
+      <c r="O17">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="P17">
+        <v>0.0004421062437949407</v>
+      </c>
+      <c r="Q17">
+        <v>0.000543893495</v>
+      </c>
+      <c r="R17">
+        <v>0.004895041455</v>
+      </c>
+      <c r="S17">
+        <v>1.929491386898909E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.929491386898909E-07</v>
       </c>
     </row>
   </sheetData>
